--- a/experiment result cnn/128_0.1_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/128_0.1_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05923024788790465</v>
+        <v>0.00739234518903283</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05542050785763394</v>
+        <v>0.003549803029569562</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05494692478251816</v>
+        <v>0.012329636162149</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05075800667556339</v>
+        <v>0.006945701573622988</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04343027672854342</v>
+        <v>0.004858055319559546</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05985933931400459</v>
+        <v>0.005540079878544736</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05556615111883947</v>
+        <v>0.006042806168871427</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06305253194726812</v>
+        <v>0.007833383716160236</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04717108626907894</v>
+        <v>0.007652214743870392</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05095435770971558</v>
+        <v>0.007671164278272175</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06850709532589122</v>
+        <v>0.006607129108921328</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07269829374108835</v>
+        <v>0.009052993002153932</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07315663272855581</v>
+        <v>0.008683477643234136</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08163939355808145</v>
+        <v>0.004333168995007757</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05779792969100307</v>
+        <v>0.003748300409145093</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06846496029462387</v>
+        <v>0.006968036206351698</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06502298238730117</v>
+        <v>0.00640549142050563</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07266415866659666</v>
+        <v>0.004090845781207828</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05452835606879257</v>
+        <v>0.007234003359816612</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05225832666815117</v>
+        <v>0.007672840737008496</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0448472598969436</v>
+        <v>0.00587987966838571</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03902449384083913</v>
+        <v>0.003388412623345045</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06336981555407786</v>
+        <v>0.008407667437845349</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04922682043269218</v>
+        <v>0.01107584467824917</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04714538295371112</v>
+        <v>0.01105141235613227</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05895061787397177</v>
+        <v>0.01578324382699182</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05871228464876906</v>
+        <v>0.007330509385213682</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04378737018692933</v>
+        <v>0.009598428191952713</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05186208236756706</v>
+        <v>0.009567499093190436</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06427734394890545</v>
+        <v>0.004975566324692413</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07013867214998366</v>
+        <v>0.01315593093496979</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0481235038625735</v>
+        <v>0.006625120449526902</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07301585252581824</v>
+        <v>0.007838526977026677</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04547656883364468</v>
+        <v>0.01016252277686579</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05329519063240227</v>
+        <v>0.00232318358033379</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05840418713380736</v>
+        <v>0.005678687404810904</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04471278821117658</v>
+        <v>0.003287014993296468</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06771297616828058</v>
+        <v>0.004310811649494132</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04318038803950409</v>
+        <v>0.009846309012548932</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07491528994968494</v>
+        <v>0.005899689043021518</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06667668838096302</v>
+        <v>0.01031767837566596</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04248345920294621</v>
+        <v>0.008699670896365972</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04366909438464296</v>
+        <v>0.01160248760256317</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04212486543682557</v>
+        <v>0.009592307632944292</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04529904287978006</v>
+        <v>0.008210566631650528</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06155295146500942</v>
+        <v>0.01129223811141212</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05525941482027635</v>
+        <v>0.00723101222433134</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06584266645900332</v>
+        <v>0.007072690336802324</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06065048317516192</v>
+        <v>0.008136550329360739</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06848184494087642</v>
+        <v>0.004071539714416449</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0577204857079001</v>
+        <v>0.0291229259551674</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05407259807173553</v>
+        <v>0.06718753659972618</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0424560774952062</v>
+        <v>0.007879048727862626</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04591666138289217</v>
+        <v>0.01164552003162989</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05422858333803415</v>
+        <v>0.02833648595307437</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05622863149172219</v>
+        <v>0.004494343609575607</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06322524591302145</v>
+        <v>0.05383375387141316</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06607656937370772</v>
+        <v>0.01962693792688662</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06264464368653197</v>
+        <v>0.02263947039893691</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07607828135295971</v>
+        <v>0.04384395580660955</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04211912498338837</v>
+        <v>0.01474594979246924</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04688500747858147</v>
+        <v>0.02785352796404769</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05411454407049666</v>
+        <v>0.03037988936977716</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03712704110779163</v>
+        <v>0.005054308811373989</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04322511835017014</v>
+        <v>0.03623021815128197</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04679153870589124</v>
+        <v>0.009901160725883817</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04651485017098256</v>
+        <v>0.03922724852094862</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0590968929081848</v>
+        <v>0.05586540097192298</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05119685413268264</v>
+        <v>0.01618339969735669</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05416226112061162</v>
+        <v>0.04989454786895897</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06224643664408733</v>
+        <v>0.007577820509259196</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.05761941871857107</v>
+        <v>0.01765114644208268</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05751999563761567</v>
+        <v>0.02266100171635912</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0678672209786764</v>
+        <v>0.0175289110206241</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03996482829357284</v>
+        <v>0.01210371216594548</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04590040453513587</v>
+        <v>0.04669578340265186</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06027783290981239</v>
+        <v>0.03408787373182474</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05035004526909359</v>
+        <v>0.0619701941453825</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04458519749489136</v>
+        <v>0.07563728139677471</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04854794892637188</v>
+        <v>0.04934769456602435</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04884806602877349</v>
+        <v>0.06791110605501414</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06964417820003595</v>
+        <v>0.04131431918200495</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04811898439832654</v>
+        <v>0.01748197946275373</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07237488821395137</v>
+        <v>0.008381878114317393</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06183839436687635</v>
+        <v>0.0227541221415994</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06067726562495195</v>
+        <v>0.03607437302440243</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06874994878488627</v>
+        <v>0.04185027728000709</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06552822798316607</v>
+        <v>0.01335899164074896</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04661151583110777</v>
+        <v>0.02545244377248696</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07221871800208005</v>
+        <v>0.02082628309618311</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0749857200598085</v>
+        <v>0.02375702957239791</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04535637886809556</v>
+        <v>0.0293152684332633</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07446071729643242</v>
+        <v>0.04551712056683352</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06070640231821367</v>
+        <v>0.06990150147805602</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03798503761964751</v>
+        <v>0.02104986466043837</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07864709218080339</v>
+        <v>0.02521621844707509</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.06639691957602051</v>
+        <v>0.03421770491857452</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04295415124425282</v>
+        <v>0.04824556399103855</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05940458927084415</v>
+        <v>0.03110233349566632</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04617656269953696</v>
+        <v>0.02296052952824872</v>
       </c>
     </row>
   </sheetData>
